--- a/data/trans_orig/P36B08_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>330253</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>306097</v>
+        <v>304677</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>355180</v>
+        <v>353505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5661729289282323</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5247616684420101</v>
+        <v>0.5223265220357453</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6089069019112933</v>
+        <v>0.6060366342111068</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>612</v>
@@ -765,19 +765,19 @@
         <v>643446</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>614163</v>
+        <v>616282</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>670636</v>
+        <v>673181</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6976288691726777</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6658798073160136</v>
+        <v>0.6681768406731161</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7271082897257743</v>
+        <v>0.7298679316182516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>933</v>
@@ -786,19 +786,19 @@
         <v>973699</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>935727</v>
+        <v>936239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1010756</v>
+        <v>1010452</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6467008975182493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6214810386330726</v>
+        <v>0.621821229209599</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6713134970097175</v>
+        <v>0.671111489434837</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>253054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>228127</v>
+        <v>229802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277210</v>
+        <v>278630</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4338270710717677</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3910930980887068</v>
+        <v>0.3939633657888932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4752383315579899</v>
+        <v>0.4776734779642547</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>273</v>
@@ -836,19 +836,19 @@
         <v>278887</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251697</v>
+        <v>249152</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308170</v>
+        <v>306051</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3023711308273223</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2728917102742257</v>
+        <v>0.2701320683817486</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3341201926839864</v>
+        <v>0.3318231593268845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>525</v>
@@ -857,19 +857,19 @@
         <v>531941</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>494884</v>
+        <v>495188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>569913</v>
+        <v>569401</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3532991024817507</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3286865029902825</v>
+        <v>0.3288885105651631</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3785189613669274</v>
+        <v>0.378178770790401</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>690167</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>657623</v>
+        <v>660458</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>718988</v>
+        <v>722773</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6402917895410385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6100998516917315</v>
+        <v>0.6127301787331252</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6670302678042214</v>
+        <v>0.6705420120894372</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>729</v>
@@ -982,19 +982,19 @@
         <v>752103</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>719663</v>
+        <v>720226</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>779682</v>
+        <v>781823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7111828471278884</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6805075384548975</v>
+        <v>0.6810407222568527</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7372612372739517</v>
+        <v>0.739286035066457</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1405</v>
@@ -1003,19 +1003,19 @@
         <v>1442270</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1398060</v>
+        <v>1398996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1487810</v>
+        <v>1485331</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6753994334403772</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6546966714803686</v>
+        <v>0.6551346536950274</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6967255422877408</v>
+        <v>0.6955645025280985</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>387727</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>358906</v>
+        <v>355121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>420271</v>
+        <v>417436</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3597082104589615</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3329697321957786</v>
+        <v>0.3294579879105629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3899001483082683</v>
+        <v>0.387269821266875</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>299</v>
@@ -1053,19 +1053,19 @@
         <v>305435</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>277856</v>
+        <v>275715</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337875</v>
+        <v>337312</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2888171528721117</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2627387627260484</v>
+        <v>0.2607139649335436</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3194924615451022</v>
+        <v>0.3189592777431474</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -1074,19 +1074,19 @@
         <v>693162</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>647622</v>
+        <v>650101</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>737372</v>
+        <v>736436</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3246005665596228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3032744577122594</v>
+        <v>0.3044354974719014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3453033285196315</v>
+        <v>0.3448653463049726</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>732274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>700189</v>
+        <v>701765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>763761</v>
+        <v>766778</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6528871327884487</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6242802812038061</v>
+        <v>0.6256852113991764</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.680960705808614</v>
+        <v>0.6836500049126225</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>693</v>
@@ -1199,19 +1199,19 @@
         <v>705749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>676628</v>
+        <v>678357</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>736299</v>
+        <v>734928</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7108098728441872</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6814796578915155</v>
+        <v>0.6832215878468519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7415788823501788</v>
+        <v>0.7401986725553448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1412</v>
@@ -1220,19 +1220,19 @@
         <v>1438023</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1394222</v>
+        <v>1398476</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1478664</v>
+        <v>1483340</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6800855341911239</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6593705980047888</v>
+        <v>0.6613823429022576</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6993057883654541</v>
+        <v>0.7015171894543509</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>389320</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>357833</v>
+        <v>354816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>421405</v>
+        <v>419829</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3471128672115513</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.319039294191386</v>
+        <v>0.3163499950873775</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3757197187961938</v>
+        <v>0.3743147886008236</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -1270,19 +1270,19 @@
         <v>287131</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256581</v>
+        <v>257952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>316252</v>
+        <v>314523</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2891901271558128</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2584211176498208</v>
+        <v>0.2598013274446552</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3185203421084838</v>
+        <v>0.3167784121531481</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>672</v>
@@ -1291,19 +1291,19 @@
         <v>676451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635810</v>
+        <v>631134</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>720252</v>
+        <v>715998</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3199144658088761</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.300694211634546</v>
+        <v>0.2984828105456491</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3406294019952112</v>
+        <v>0.3386176570977423</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>292895</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>270708</v>
+        <v>272905</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>312222</v>
+        <v>314071</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6549539048946595</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.605340098067176</v>
+        <v>0.610253369388427</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.698170072489033</v>
+        <v>0.7023063007921201</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>253</v>
@@ -1416,19 +1416,19 @@
         <v>253924</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>235737</v>
+        <v>235473</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>267847</v>
+        <v>269074</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7443011591551246</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6909914059622765</v>
+        <v>0.6902154600549963</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7851113274346131</v>
+        <v>0.7887064979152852</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>542</v>
@@ -1437,19 +1437,19 @@
         <v>546820</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>517917</v>
+        <v>520522</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>570477</v>
+        <v>571455</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6936185111508737</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6569567492652523</v>
+        <v>0.6602610238045524</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7236262862514312</v>
+        <v>0.7248678303016175</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>154305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134978</v>
+        <v>133129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>176492</v>
+        <v>174295</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3450460951053405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3018299275109668</v>
+        <v>0.29769369920788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3946599019328233</v>
+        <v>0.3897466306115733</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>86</v>
@@ -1487,19 +1487,19 @@
         <v>87234</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73311</v>
+        <v>72084</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>105421</v>
+        <v>105685</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2556988408448753</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2148886725653869</v>
+        <v>0.2112935020847148</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3090085940377235</v>
+        <v>0.3097845399450036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>233</v>
@@ -1508,19 +1508,19 @@
         <v>241538</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>217881</v>
+        <v>216903</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>270441</v>
+        <v>267836</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3063814888491263</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2763737137485688</v>
+        <v>0.2751321696983826</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3430432507347475</v>
+        <v>0.3397389761954477</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2045589</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1991633</v>
+        <v>1992490</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2101589</v>
+        <v>2101633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6333102568937243</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6166056799958811</v>
+        <v>0.6168709837765968</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.650647683675263</v>
+        <v>0.6506615017448738</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2287</v>
@@ -1633,19 +1633,19 @@
         <v>2355222</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2301159</v>
+        <v>2299971</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2405220</v>
+        <v>2408494</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7107081747220858</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6943942817465121</v>
+        <v>0.6940357703574062</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7257955067073364</v>
+        <v>0.7267833098002324</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4292</v>
@@ -1654,19 +1654,19 @@
         <v>4400811</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4325074</v>
+        <v>4321294</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4477763</v>
+        <v>4477506</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6725054594886798</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.660931805856338</v>
+        <v>0.6603541294757352</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6842647502450468</v>
+        <v>0.6842255696687241</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1184406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1128406</v>
+        <v>1128362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1238362</v>
+        <v>1237505</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3666897431062757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3493523163247369</v>
+        <v>0.3493384982551262</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3833943200041189</v>
+        <v>0.3831290162234032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>946</v>
@@ -1704,19 +1704,19 @@
         <v>958687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>908689</v>
+        <v>905415</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1012750</v>
+        <v>1013938</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2892918252779142</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2742044932926636</v>
+        <v>0.2732166901997676</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.305605718253488</v>
+        <v>0.3059642296425939</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2108</v>
@@ -1725,19 +1725,19 @@
         <v>2143093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2066141</v>
+        <v>2066398</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2218830</v>
+        <v>2222610</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3274945405113202</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3157352497549522</v>
+        <v>0.3157744303312759</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.339068194143662</v>
+        <v>0.3396458705242646</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>654045</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>621272</v>
+        <v>621107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>685924</v>
+        <v>684750</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6277707271534881</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5963139958135082</v>
+        <v>0.5961559080595475</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6583690383192002</v>
+        <v>0.6572420831672401</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>733</v>
@@ -2090,19 +2090,19 @@
         <v>795273</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>766230</v>
+        <v>758142</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>831131</v>
+        <v>823007</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7101111333002285</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6841778462418852</v>
+        <v>0.6769560453868813</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7421290797363688</v>
+        <v>0.7348749470765539</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1340</v>
@@ -2111,19 +2111,19 @@
         <v>1449319</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1401979</v>
+        <v>1403463</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1494704</v>
+        <v>1497295</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6704278141269866</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6485292139279079</v>
+        <v>0.6492153650374299</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6914219548018385</v>
+        <v>0.6926201901746268</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>387809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>355930</v>
+        <v>357104</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>420582</v>
+        <v>420747</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3722292728465119</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3416309616807999</v>
+        <v>0.3427579168327599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4036860041864919</v>
+        <v>0.4038440919404525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>298</v>
@@ -2161,19 +2161,19 @@
         <v>324655</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288797</v>
+        <v>296921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>353698</v>
+        <v>361786</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2898888666997716</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2578709202636312</v>
+        <v>0.265125052923446</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3158221537581149</v>
+        <v>0.3230439546131186</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>667</v>
@@ -2182,19 +2182,19 @@
         <v>712464</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>667079</v>
+        <v>664488</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759804</v>
+        <v>758320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3295721858730133</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3085780451981615</v>
+        <v>0.3073798098253731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.351470786072092</v>
+        <v>0.3507846349625701</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>698709</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>666812</v>
+        <v>671970</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>725965</v>
+        <v>725651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7165787042762622</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6838658445067376</v>
+        <v>0.689155099888304</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.744531334816067</v>
+        <v>0.7442096669862968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>826</v>
@@ -2307,19 +2307,19 @@
         <v>885446</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>858078</v>
+        <v>857429</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>909796</v>
+        <v>910234</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8105973848060725</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.785543527293081</v>
+        <v>0.7849491679406233</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8328896874793053</v>
+        <v>0.8332905430166599</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1484</v>
@@ -2328,19 +2328,19 @@
         <v>1584155</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1542558</v>
+        <v>1546360</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1623536</v>
+        <v>1620413</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.766254672807607</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7461341781743169</v>
+        <v>0.7479731253877286</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7853031577985834</v>
+        <v>0.7837926806803629</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>276354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>249098</v>
+        <v>249412</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>308251</v>
+        <v>303093</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2834212957237377</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2554686651839329</v>
+        <v>0.2557903330137033</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3161341554932623</v>
+        <v>0.310844900111696</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>192</v>
@@ -2378,19 +2378,19 @@
         <v>206891</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>182541</v>
+        <v>182103</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>234259</v>
+        <v>234908</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1894026151939275</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1671103125206948</v>
+        <v>0.1667094569833401</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.214456472706919</v>
+        <v>0.2150508320593771</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>456</v>
@@ -2399,19 +2399,19 @@
         <v>483245</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>443864</v>
+        <v>446987</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>524842</v>
+        <v>521040</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2337453271923931</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2146968422014164</v>
+        <v>0.2162073193196373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.253865821825683</v>
+        <v>0.2520268746122714</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>675320</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>646943</v>
+        <v>651286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>700389</v>
+        <v>701239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7647423564361218</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7326076787801844</v>
+        <v>0.7375260247290191</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7931301677456488</v>
+        <v>0.7940926662126555</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>696</v>
@@ -2524,19 +2524,19 @@
         <v>747287</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>723903</v>
+        <v>725119</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>765956</v>
+        <v>766248</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8543883010784006</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.827653052751128</v>
+        <v>0.8290430014503694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8757322076818019</v>
+        <v>0.8760665591300694</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1326</v>
@@ -2545,19 +2545,19 @@
         <v>1422608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1392565</v>
+        <v>1390761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1458675</v>
+        <v>1459114</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8093505443424978</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7922585752107609</v>
+        <v>0.7912321589721727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8298697637290006</v>
+        <v>0.8301195314154532</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>207749</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>182680</v>
+        <v>181830</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>236126</v>
+        <v>231783</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2352576435638783</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2068698322543513</v>
+        <v>0.2059073337873443</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2673923212198156</v>
+        <v>0.2624739752709809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>124</v>
@@ -2595,19 +2595,19 @@
         <v>127359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>108690</v>
+        <v>108398</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>150743</v>
+        <v>149527</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1456116989215994</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.124267792318198</v>
+        <v>0.1239334408699307</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.172346947248872</v>
+        <v>0.1709569985496306</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>322</v>
@@ -2616,19 +2616,19 @@
         <v>335107</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>299040</v>
+        <v>298601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>365150</v>
+        <v>366954</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1906494556575022</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1701302362709994</v>
+        <v>0.1698804685845469</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2077414247892391</v>
+        <v>0.2087678410278273</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>391925</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>371365</v>
+        <v>371423</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>408677</v>
+        <v>410926</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7808011056322838</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7398413636148414</v>
+        <v>0.7399581765523727</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8141754585185493</v>
+        <v>0.8186562124852987</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>347</v>
@@ -2741,19 +2741,19 @@
         <v>381482</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>364128</v>
+        <v>365656</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>394966</v>
+        <v>394444</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8553823138549128</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8164701790657488</v>
+        <v>0.8198977621404501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8856169465785154</v>
+        <v>0.8844463569100279</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>702</v>
@@ -2762,19 +2762,19 @@
         <v>773406</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>747287</v>
+        <v>749546</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>799454</v>
+        <v>798589</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8158897634592108</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7883352569209878</v>
+        <v>0.7907183103557607</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8433683642260641</v>
+        <v>0.842455708251081</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>110027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93275</v>
+        <v>91026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130587</v>
+        <v>130529</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2191988943677162</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1858245414814507</v>
+        <v>0.1813437875147016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2601586363851586</v>
+        <v>0.2600418234476274</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -2812,19 +2812,19 @@
         <v>64496</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51012</v>
+        <v>51534</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81850</v>
+        <v>80322</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1446176861450872</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1143830534214845</v>
+        <v>0.1155536430899721</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.183529820934251</v>
+        <v>0.1801022378595499</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>166</v>
@@ -2833,19 +2833,19 @@
         <v>174524</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>148476</v>
+        <v>149341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>200643</v>
+        <v>198384</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1841102365407891</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.156631635773936</v>
+        <v>0.1575442917489191</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2116647430790121</v>
+        <v>0.2092816896442394</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2420000</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2367798</v>
+        <v>2364791</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2472624</v>
+        <v>2473940</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7113591496496473</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6960145318097855</v>
+        <v>0.6951304456713004</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7268281973478318</v>
+        <v>0.7272148413206713</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2602</v>
@@ -2958,19 +2958,19 @@
         <v>2809489</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2760715</v>
+        <v>2759346</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2858104</v>
+        <v>2856752</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7952380788560787</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7814326158261012</v>
+        <v>0.7810450132026288</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8089989528109489</v>
+        <v>0.8086162275669744</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4852</v>
@@ -2979,19 +2979,19 @@
         <v>5229488</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5157555</v>
+        <v>5160140</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5305899</v>
+        <v>5303600</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7540905665052685</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7437178346672814</v>
+        <v>0.7440906100890027</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7651089438645725</v>
+        <v>0.764777473426546</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>981938</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>929314</v>
+        <v>927998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1034140</v>
+        <v>1037147</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2886408503503527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2731718026521681</v>
+        <v>0.2727851586793288</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3039854681902146</v>
+        <v>0.3048695543286996</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>675</v>
@@ -3029,19 +3029,19 @@
         <v>723401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>674786</v>
+        <v>676138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>772175</v>
+        <v>773544</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2047619211439214</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1910010471890511</v>
+        <v>0.1913837724330256</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2185673841738988</v>
+        <v>0.2189549867973713</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1611</v>
@@ -3050,19 +3050,19 @@
         <v>1705340</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1628929</v>
+        <v>1631228</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1777273</v>
+        <v>1774688</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2459094334947315</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2348910561354275</v>
+        <v>0.2352225265734538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2562821653327187</v>
+        <v>0.2559093899109972</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>839749</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>811346</v>
+        <v>808140</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>867378</v>
+        <v>869568</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7493003494208547</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7239561744627577</v>
+        <v>0.7210954886294149</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7739529909821501</v>
+        <v>0.775907573794565</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>895</v>
@@ -3415,19 +3415,19 @@
         <v>953491</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>921465</v>
+        <v>923542</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>982567</v>
+        <v>984304</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7614816238448898</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7359047232562046</v>
+        <v>0.7375632058309093</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7847016939717973</v>
+        <v>0.7860889232408461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1691</v>
@@ -3436,19 +3436,19 @@
         <v>1793241</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1751043</v>
+        <v>1745246</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1839474</v>
+        <v>1833078</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.755728368843809</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7379447429474381</v>
+        <v>0.7355017144265044</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7752125975161046</v>
+        <v>0.7725170640837591</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>280962</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253333</v>
+        <v>251143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309365</v>
+        <v>312571</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2506996505791453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.22604700901785</v>
+        <v>0.224092426205435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2760438255372423</v>
+        <v>0.2789045113705851</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>286</v>
@@ -3486,19 +3486,19 @@
         <v>298662</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269586</v>
+        <v>267849</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>330688</v>
+        <v>328611</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2385183761551102</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2152983060282027</v>
+        <v>0.2139110767591538</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2640952767437956</v>
+        <v>0.2624367941690907</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>550</v>
@@ -3507,19 +3507,19 @@
         <v>579623</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>533390</v>
+        <v>539786</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>621821</v>
+        <v>627618</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2442716311561909</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2247874024838954</v>
+        <v>0.2274829359162409</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2620552570525619</v>
+        <v>0.2644982855734956</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>623703</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>594871</v>
+        <v>594447</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>651941</v>
+        <v>651667</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.691522158409793</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6595559049615465</v>
+        <v>0.659085593830587</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7228312039603623</v>
+        <v>0.7225274737130664</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>733</v>
@@ -3632,19 +3632,19 @@
         <v>777893</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>750359</v>
+        <v>750629</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>803368</v>
+        <v>806035</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7746584540780843</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7472385344463547</v>
+        <v>0.7475077823823457</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8000271997698322</v>
+        <v>0.8026833553817763</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1347</v>
@@ -3653,19 +3653,19 @@
         <v>1401595</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1360496</v>
+        <v>1364078</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1436847</v>
+        <v>1441669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.735320148895912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7137582150781491</v>
+        <v>0.7156375565081485</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7538145555879306</v>
+        <v>0.7563439931434057</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>278224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>249986</v>
+        <v>250260</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>307056</v>
+        <v>307480</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.308477841590207</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2771687960396376</v>
+        <v>0.2774725262869337</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3404440950384534</v>
+        <v>0.340914406169413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>216</v>
@@ -3703,19 +3703,19 @@
         <v>226283</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>200808</v>
+        <v>198141</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>253817</v>
+        <v>253547</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2253415459219157</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1999728002301678</v>
+        <v>0.1973166446182228</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2527614655536451</v>
+        <v>0.2524922176176538</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>477</v>
@@ -3724,19 +3724,19 @@
         <v>504507</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>469255</v>
+        <v>464433</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>545606</v>
+        <v>542024</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.264679851104088</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2461854444120692</v>
+        <v>0.2436560068565946</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2862417849218508</v>
+        <v>0.284362443491852</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>589218</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>561003</v>
+        <v>561948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>614131</v>
+        <v>615253</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7178890342333403</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6835125277371856</v>
+        <v>0.6846642023006108</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7482425516732213</v>
+        <v>0.7496089738602373</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>550</v>
@@ -3849,19 +3849,19 @@
         <v>588394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>563919</v>
+        <v>562418</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>611015</v>
+        <v>610437</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7680494270890711</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7361006455313321</v>
+        <v>0.7341414688962157</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7975764906392808</v>
+        <v>0.7968225578600251</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1115</v>
@@ -3870,19 +3870,19 @@
         <v>1177612</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1138720</v>
+        <v>1142776</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1214066</v>
+        <v>1210671</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7421050889347728</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7175960891663739</v>
+        <v>0.7201521059461103</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7650770514746106</v>
+        <v>0.7629381134792005</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>231547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>206634</v>
+        <v>205512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>259762</v>
+        <v>258817</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2821109657666597</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2517574483267787</v>
+        <v>0.2503910261397628</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3164874722628143</v>
+        <v>0.3153357976993893</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>173</v>
@@ -3920,19 +3920,19 @@
         <v>177695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155074</v>
+        <v>155652</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>202170</v>
+        <v>203671</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.231950572910929</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2024235093607192</v>
+        <v>0.2031774421399747</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2638993544686679</v>
+        <v>0.2658585311037843</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>392</v>
@@ -3941,19 +3941,19 @@
         <v>409242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>372788</v>
+        <v>376183</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>448134</v>
+        <v>444078</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2578949110652272</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2349229485253892</v>
+        <v>0.2370618865207995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2824039108336261</v>
+        <v>0.2798478940538897</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>367969</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>347280</v>
+        <v>347482</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>387048</v>
+        <v>387624</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7262063728085161</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6853755302016791</v>
+        <v>0.6857740644894837</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.76385944702078</v>
+        <v>0.7649947238125194</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>369</v>
@@ -4066,19 +4066,19 @@
         <v>400497</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>382238</v>
+        <v>382374</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>415856</v>
+        <v>418004</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8197087129993735</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7823358970080136</v>
+        <v>0.782615193482791</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8511433728562372</v>
+        <v>0.8555391049273738</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>708</v>
@@ -4087,19 +4087,19 @@
         <v>768467</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>739749</v>
+        <v>742427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>795192</v>
+        <v>797230</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7721066128779521</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7432529120062632</v>
+        <v>0.745943662031528</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7989582812328017</v>
+        <v>0.8010064136280107</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>138732</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>119653</v>
+        <v>119077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>159421</v>
+        <v>159219</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2737936271914839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2361405529792199</v>
+        <v>0.2350052761874805</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3146244697983205</v>
+        <v>0.3142259355105161</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -4137,19 +4137,19 @@
         <v>88088</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72729</v>
+        <v>70581</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>106347</v>
+        <v>106211</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1802912870006264</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1488566271437628</v>
+        <v>0.1444608950726262</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2176641029919864</v>
+        <v>0.2173848065172091</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>217</v>
@@ -4158,19 +4158,19 @@
         <v>226819</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>200094</v>
+        <v>198056</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>255537</v>
+        <v>252859</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2278933871220478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2010417187671983</v>
+        <v>0.1989935863719892</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2567470879937367</v>
+        <v>0.254056337968472</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2420639</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2366827</v>
+        <v>2371685</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2475503</v>
+        <v>2474677</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7225564818824185</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7064938682004424</v>
+        <v>0.7079438601261837</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7389333432245543</v>
+        <v>0.7386868329186757</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2547</v>
@@ -4283,19 +4283,19 @@
         <v>2720277</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2667673</v>
+        <v>2664018</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2767431</v>
+        <v>2769195</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7747861643649604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7598035699041021</v>
+        <v>0.758762783519372</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7882166495737989</v>
+        <v>0.7887191537647226</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4861</v>
@@ -4304,19 +4304,19 @@
         <v>5140916</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5063667</v>
+        <v>5072754</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5214675</v>
+        <v>5212655</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7492837423762289</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7380247929696878</v>
+        <v>0.7393492215557416</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7600341197038532</v>
+        <v>0.7597397069375496</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>929464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>874600</v>
+        <v>875426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>983276</v>
+        <v>978418</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2774435181175814</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2610666567754458</v>
+        <v>0.2613131670813243</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2935061317995579</v>
+        <v>0.2920561398738163</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>760</v>
@@ -4354,19 +4354,19 @@
         <v>790726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>743572</v>
+        <v>741808</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>843330</v>
+        <v>846985</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2252138356350396</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2117833504262013</v>
+        <v>0.2112808462352773</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2401964300958979</v>
+        <v>0.241237216480628</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1636</v>
@@ -4375,19 +4375,19 @@
         <v>1720191</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1646432</v>
+        <v>1648452</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1797440</v>
+        <v>1788353</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2507162576237711</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2399658802961468</v>
+        <v>0.2402602930624504</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2619752070303116</v>
+        <v>0.2606507784442585</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>461629</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>446528</v>
+        <v>446859</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>473533</v>
+        <v>472809</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9270201125254987</v>
+        <v>0.9270201125254985</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8966956273384953</v>
+        <v>0.8973590394648724</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9509248263295873</v>
+        <v>0.9494706646661845</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>818</v>
@@ -4740,19 +4740,19 @@
         <v>588843</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>575288</v>
+        <v>574885</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>598071</v>
+        <v>598602</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9442942939830071</v>
+        <v>0.9442942939830069</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9225570195551425</v>
+        <v>0.9219106759600624</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9590932225571827</v>
+        <v>0.9599437488803041</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1240</v>
@@ -4761,19 +4761,19 @@
         <v>1050472</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1032144</v>
+        <v>1029692</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1065753</v>
+        <v>1066147</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9366245250768649</v>
+        <v>0.9366245250768646</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.920282463012685</v>
+        <v>0.918096382058068</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9502492436404092</v>
+        <v>0.9506007920378893</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>36342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24438</v>
+        <v>25162</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51443</v>
+        <v>51112</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07297988747450132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04907517367041268</v>
+        <v>0.05052933533381551</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1033043726615041</v>
+        <v>0.1026409605351278</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -4811,19 +4811,19 @@
         <v>34737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25509</v>
+        <v>24978</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48292</v>
+        <v>48695</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05570570601699289</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04090677744281734</v>
+        <v>0.04005625111969614</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07744298044485762</v>
+        <v>0.07808932403993767</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>75</v>
@@ -4832,19 +4832,19 @@
         <v>71079</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55798</v>
+        <v>55404</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89407</v>
+        <v>91859</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06337547492313515</v>
+        <v>0.06337547492313514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04975075635959086</v>
+        <v>0.04939920796211061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07971753698731501</v>
+        <v>0.08190361794193184</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>924315</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>909120</v>
+        <v>910251</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>934908</v>
+        <v>935335</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9636986396087081</v>
+        <v>0.9636986396087079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9478564379844453</v>
+        <v>0.9490351864372215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9747423348556642</v>
+        <v>0.9751879435422536</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1551</v>
@@ -4957,19 +4957,19 @@
         <v>1075824</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1063816</v>
+        <v>1064395</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1085703</v>
+        <v>1085625</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9650717658469985</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9542995361800397</v>
+        <v>0.9548193088989312</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9739330489980895</v>
+        <v>0.9738630605715974</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2427</v>
@@ -4978,19 +4978,19 @@
         <v>2000140</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1981568</v>
+        <v>1982549</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2016115</v>
+        <v>2014677</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9644367235999721</v>
+        <v>0.9644367235999722</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9554818217811956</v>
+        <v>0.9559549560746547</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9721396815232892</v>
+        <v>0.9714465697602636</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>34818</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24225</v>
+        <v>23798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50013</v>
+        <v>48882</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03630136039129202</v>
+        <v>0.03630136039129201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02525766514433585</v>
+        <v>0.02481205645774635</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05214356201555474</v>
+        <v>0.05096481356277865</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -5028,19 +5028,19 @@
         <v>38937</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29058</v>
+        <v>29136</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50945</v>
+        <v>50366</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0349282341530017</v>
+        <v>0.03492823415300169</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02606695100191068</v>
+        <v>0.02613693942840248</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04570046381996042</v>
+        <v>0.04518069110106892</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>87</v>
@@ -5049,19 +5049,19 @@
         <v>73754</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>57779</v>
+        <v>59217</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>92326</v>
+        <v>91345</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03556327640002786</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02786031847671057</v>
+        <v>0.0285534302397364</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04451817821880457</v>
+        <v>0.04404504392534536</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>973140</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>951934</v>
+        <v>950151</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>989978</v>
+        <v>990947</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9305595001694629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9102815098660015</v>
+        <v>0.9085766658357221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9466610448103278</v>
+        <v>0.9475874490713762</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1462</v>
@@ -5174,19 +5174,19 @@
         <v>1005499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>991957</v>
+        <v>992568</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1016300</v>
+        <v>1016440</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9616694170607171</v>
+        <v>0.961669417060717</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9487173053702055</v>
+        <v>0.9493013750585819</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9719994173708429</v>
+        <v>0.9721334609395904</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2429</v>
@@ -5195,19 +5195,19 @@
         <v>1978639</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1951158</v>
+        <v>1951864</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1998504</v>
+        <v>1996742</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9461131068334577</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9329726393895534</v>
+        <v>0.9333099734804509</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9556118228093213</v>
+        <v>0.9547692143213548</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>72618</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>55780</v>
+        <v>54811</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93824</v>
+        <v>95607</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06944049983053703</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05333895518967215</v>
+        <v>0.05241255092862392</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0897184901339986</v>
+        <v>0.09142333416427786</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>51</v>
@@ -5245,19 +5245,19 @@
         <v>40078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29277</v>
+        <v>29137</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53620</v>
+        <v>53009</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0383305829392829</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02800058262915688</v>
+        <v>0.02786653906040882</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05128269462979447</v>
+        <v>0.05069862494141764</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>112</v>
@@ -5266,19 +5266,19 @@
         <v>112696</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>92831</v>
+        <v>94593</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>140177</v>
+        <v>139471</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05388689316654224</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04438817719067843</v>
+        <v>0.04523078567864518</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06702736061044604</v>
+        <v>0.06669002651954871</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>923739</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>902721</v>
+        <v>902561</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>938138</v>
+        <v>938992</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9465224539093451</v>
+        <v>0.946522453909345</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.924986444881933</v>
+        <v>0.9248224388185842</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9612771849013997</v>
+        <v>0.9621523741219303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1271</v>
@@ -5391,19 +5391,19 @@
         <v>866132</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>851106</v>
+        <v>849649</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>877206</v>
+        <v>876429</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9546475509899935</v>
+        <v>0.9546475509899933</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9380860286665931</v>
+        <v>0.9364803438479351</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9668533124641349</v>
+        <v>0.965996698182654</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2175</v>
@@ -5412,19 +5412,19 @@
         <v>1789870</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1765602</v>
+        <v>1764713</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1810350</v>
+        <v>1810960</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9504369075551108</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9375500724049137</v>
+        <v>0.937078127399282</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.961311650102942</v>
+        <v>0.9616355122196932</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>52190</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37791</v>
+        <v>36937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73208</v>
+        <v>73368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05347754609065505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03872281509860034</v>
+        <v>0.03784762587806974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07501355511806695</v>
+        <v>0.07517756118141591</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -5462,19 +5462,19 @@
         <v>41147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30073</v>
+        <v>30850</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56173</v>
+        <v>57630</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04535244901000655</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03314668753586523</v>
+        <v>0.03400330181734595</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06191397133340694</v>
+        <v>0.06351965615206473</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -5483,19 +5483,19 @@
         <v>93338</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>72858</v>
+        <v>72248</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117606</v>
+        <v>118495</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04956309244488921</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03868834989705809</v>
+        <v>0.03836448778030675</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06244992759508624</v>
+        <v>0.06292187260071756</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>3282823</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3248747</v>
+        <v>3251311</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3310709</v>
+        <v>3313111</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.943667797717037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9338723047706043</v>
+        <v>0.9346095958487768</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9516838010285321</v>
+        <v>0.9523742001206117</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5102</v>
@@ -5608,19 +5608,19 @@
         <v>3536298</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3511313</v>
+        <v>3509428</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3561280</v>
+        <v>3557049</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9580356985820792</v>
+        <v>0.9580356985820793</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9512668094467793</v>
+        <v>0.9507560397280201</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9648035303361097</v>
+        <v>0.9636573155746447</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8271</v>
@@ -5629,19 +5629,19 @@
         <v>6819122</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6771095</v>
+        <v>6773836</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6852915</v>
+        <v>6853165</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9510645681692868</v>
+        <v>0.9510645681692869</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9443662824977087</v>
+        <v>0.94474852305886</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9557777475936592</v>
+        <v>0.955812562501978</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>195968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>168082</v>
+        <v>165680</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>230044</v>
+        <v>227480</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05633220228296295</v>
+        <v>0.05633220228296294</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04831619897146797</v>
+        <v>0.0476257998793883</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06612769522939586</v>
+        <v>0.06539040415122303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>195</v>
@@ -5679,19 +5679,19 @@
         <v>154899</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>129917</v>
+        <v>134148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>179884</v>
+        <v>181769</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04196430141792094</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0351964696638903</v>
+        <v>0.03634268442535522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04873319055322065</v>
+        <v>0.04924396027197982</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>364</v>
@@ -5700,19 +5700,19 @@
         <v>350866</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>317073</v>
+        <v>316823</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>398893</v>
+        <v>396152</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04893543183071314</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04422225240634099</v>
+        <v>0.04418743749802152</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05563371750229153</v>
+        <v>0.05525147694113999</v>
       </c>
     </row>
     <row r="18">
